--- a/data/trans_orig/P1421-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>23909</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15976</v>
+        <v>15481</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35325</v>
+        <v>34021</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04093069670734609</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02734961860212734</v>
+        <v>0.02650163014603856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06047337075761102</v>
+        <v>0.05824181597937195</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -765,19 +765,19 @@
         <v>56754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43560</v>
+        <v>44358</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72722</v>
+        <v>71908</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06153359733890575</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04722809291124037</v>
+        <v>0.04809355906340135</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07884550783189022</v>
+        <v>0.07796342984338514</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -786,19 +786,19 @@
         <v>80664</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64614</v>
+        <v>64423</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99246</v>
+        <v>98526</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05354474187320761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04289078449339324</v>
+        <v>0.04276409635545494</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06587940856828282</v>
+        <v>0.06540181942627095</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>560232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>548816</v>
+        <v>550120</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>568165</v>
+        <v>568660</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9590693032926539</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9395266292423889</v>
+        <v>0.9417581840206281</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9726503813978726</v>
+        <v>0.9734983698539614</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>829</v>
@@ -836,19 +836,19 @@
         <v>865579</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>849611</v>
+        <v>850425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>878773</v>
+        <v>877975</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9384664026610943</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9211544921681094</v>
+        <v>0.9220365701566147</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9527719070887596</v>
+        <v>0.9519064409365985</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1379</v>
@@ -857,19 +857,19 @@
         <v>1425810</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1407228</v>
+        <v>1407948</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1441860</v>
+        <v>1442051</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9464552581267924</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9341205914317172</v>
+        <v>0.934598180573729</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9571092155066068</v>
+        <v>0.9572359036445451</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15079</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8843</v>
+        <v>8571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24513</v>
+        <v>24467</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01398938259888176</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008204225620283341</v>
+        <v>0.007951684352829868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0227417165721622</v>
+        <v>0.02269915364198756</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -982,19 +982,19 @@
         <v>67049</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52042</v>
+        <v>52575</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84487</v>
+        <v>83527</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06340109432414938</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04921063692045297</v>
+        <v>0.04971479334533368</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07989047804732297</v>
+        <v>0.07898292838104344</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -1003,19 +1003,19 @@
         <v>82128</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63191</v>
+        <v>66796</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99285</v>
+        <v>101385</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03845972961807002</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02959149395184663</v>
+        <v>0.03127987268360298</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04649412207125651</v>
+        <v>0.04747764288196003</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1062815</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1053381</v>
+        <v>1053427</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1069051</v>
+        <v>1069323</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9860106174011183</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9772582834278377</v>
+        <v>0.9773008463580123</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9917957743797167</v>
+        <v>0.9920483156471701</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>964</v>
@@ -1053,19 +1053,19 @@
         <v>990489</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>973051</v>
+        <v>974011</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1005496</v>
+        <v>1004963</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9365989056758506</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.920109521952677</v>
+        <v>0.9210170716189566</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.950789363079547</v>
+        <v>0.9502852066546663</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2004</v>
@@ -1074,19 +1074,19 @@
         <v>2053304</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2036147</v>
+        <v>2034047</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2072241</v>
+        <v>2068636</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.96154027038193</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9535058779287434</v>
+        <v>0.95252235711804</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9704085060481533</v>
+        <v>0.968720127316397</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>25026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16918</v>
+        <v>16997</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36656</v>
+        <v>36879</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02231325308688382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01508420608670218</v>
+        <v>0.01515450596205193</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03268167160091801</v>
+        <v>0.03288077313482672</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -1199,19 +1199,19 @@
         <v>41054</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30451</v>
+        <v>29453</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56897</v>
+        <v>54040</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04130452241684052</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03063689450983485</v>
+        <v>0.02963228222227218</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05724389115795436</v>
+        <v>0.05436964070219887</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -1220,19 +1220,19 @@
         <v>66081</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51371</v>
+        <v>51673</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85547</v>
+        <v>82054</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03123590608999966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02428278016300505</v>
+        <v>0.02442560692209679</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04043732551156195</v>
+        <v>0.0387863831569287</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1096568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1084938</v>
+        <v>1084715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1104676</v>
+        <v>1104597</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9776867469131162</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9673183283990821</v>
+        <v>0.9671192268651734</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9849157939132979</v>
+        <v>0.9848454940379481</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>942</v>
@@ -1270,19 +1270,19 @@
         <v>952886</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>937043</v>
+        <v>939900</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>963489</v>
+        <v>964487</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9586954775831594</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9427561088420456</v>
+        <v>0.9456303592978011</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9693631054901651</v>
+        <v>0.9703677177777278</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2020</v>
@@ -1291,19 +1291,19 @@
         <v>2049453</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2029987</v>
+        <v>2033480</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2064163</v>
+        <v>2063861</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9687640939100003</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.959562674488438</v>
+        <v>0.9612136168430712</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.975717219836995</v>
+        <v>0.9755743930779027</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>14457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7934</v>
+        <v>8471</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24345</v>
+        <v>24168</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03232748536799152</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01774218666255089</v>
+        <v>0.01894186509993952</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05443767720885803</v>
+        <v>0.05404304855736426</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1416,19 +1416,19 @@
         <v>28115</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19081</v>
+        <v>19077</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39703</v>
+        <v>39879</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08241043788475477</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05592904273543285</v>
+        <v>0.05591832332864004</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1163776898884942</v>
+        <v>0.1168923433773962</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -1437,19 +1437,19 @@
         <v>42572</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30417</v>
+        <v>30751</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56303</v>
+        <v>57150</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05400064874875101</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03858292117814819</v>
+        <v>0.0390064790419057</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07141856536752779</v>
+        <v>0.07249291243119364</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>432743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>422855</v>
+        <v>423032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>439266</v>
+        <v>438729</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9676725146320084</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9455623227911421</v>
+        <v>0.9459569514426359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9822578133374492</v>
+        <v>0.9810581349000604</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>312</v>
@@ -1487,19 +1487,19 @@
         <v>313043</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>301455</v>
+        <v>301279</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>322077</v>
+        <v>322081</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9175895621152452</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8836223101115062</v>
+        <v>0.8831076566226037</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9440709572645672</v>
+        <v>0.9440816766713599</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>734</v>
@@ -1508,19 +1508,19 @@
         <v>745786</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>732055</v>
+        <v>731208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>757941</v>
+        <v>757607</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.945999351251249</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9285814346324722</v>
+        <v>0.9275070875688064</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9614170788218518</v>
+        <v>0.9609935209580946</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>78472</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63240</v>
+        <v>62288</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99510</v>
+        <v>97123</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0242883903140302</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01957400505519679</v>
+        <v>0.01927915739711463</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03080016684891477</v>
+        <v>0.03006117331912262</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>187</v>
@@ -1633,19 +1633,19 @@
         <v>192973</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167380</v>
+        <v>164892</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>221726</v>
+        <v>219591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05821253161885775</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05049203416143532</v>
+        <v>0.04974164623067526</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06688642475824286</v>
+        <v>0.06624213698663931</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>265</v>
@@ -1654,19 +1654,19 @@
         <v>271444</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>241418</v>
+        <v>242228</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>306463</v>
+        <v>305723</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04146849099884327</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0368813127759378</v>
+        <v>0.03700516482237628</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04681835384601132</v>
+        <v>0.04670526812784592</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3152357</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3131319</v>
+        <v>3133706</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3167589</v>
+        <v>3168541</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9757116096859698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9691998331510853</v>
+        <v>0.9699388266808774</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9804259949448032</v>
+        <v>0.9807208426028854</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3047</v>
@@ -1704,19 +1704,19 @@
         <v>3121996</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3093243</v>
+        <v>3095378</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3147589</v>
+        <v>3150077</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9417874683811422</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9331135752417571</v>
+        <v>0.9337578630133607</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9495079658385647</v>
+        <v>0.9502583537693249</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6137</v>
@@ -1725,19 +1725,19 @@
         <v>6274354</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6239335</v>
+        <v>6240075</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6304380</v>
+        <v>6303570</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9585315090011567</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9531816461539887</v>
+        <v>0.9532947318721541</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9631186872240622</v>
+        <v>0.9629948351776237</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>16698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9669</v>
+        <v>9526</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27665</v>
+        <v>27395</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01599518943900645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009262413383271075</v>
+        <v>0.009125156045697632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02650048208782801</v>
+        <v>0.02624180221395465</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -2090,19 +2090,19 @@
         <v>76194</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60217</v>
+        <v>59824</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94827</v>
+        <v>95489</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0681120972436924</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05383020252431024</v>
+        <v>0.05347855192767642</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08476886290349735</v>
+        <v>0.08536037297400857</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -2111,19 +2111,19 @@
         <v>92892</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74609</v>
+        <v>74820</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115367</v>
+        <v>115093</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04295397199926263</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03449966730212511</v>
+        <v>0.03459736742648085</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05334668405578104</v>
+        <v>0.0532200688159916</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1027237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1016270</v>
+        <v>1016540</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1034266</v>
+        <v>1034409</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9840048105609935</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9734995179121719</v>
+        <v>0.9737581977860453</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9907375866167288</v>
+        <v>0.9908748439543024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>960</v>
@@ -2161,19 +2161,19 @@
         <v>1042459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1023826</v>
+        <v>1023164</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1058436</v>
+        <v>1058829</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9318879027563076</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9152311370965029</v>
+        <v>0.9146396270259918</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9461697974756903</v>
+        <v>0.9465214480723236</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1923</v>
@@ -2182,19 +2182,19 @@
         <v>2069696</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2047221</v>
+        <v>2047495</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2087979</v>
+        <v>2087768</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9570460280007373</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9466533159442189</v>
+        <v>0.9467799311840083</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9655003326978749</v>
+        <v>0.9654026325735191</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>6621</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3177</v>
+        <v>2831</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14409</v>
+        <v>13208</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006776239092554093</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003251820790009827</v>
+        <v>0.002896941599945101</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01474698393854271</v>
+        <v>0.01351811613176152</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -2307,19 +2307,19 @@
         <v>48629</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36525</v>
+        <v>35597</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63250</v>
+        <v>63294</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0445183241949987</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03343795425467571</v>
+        <v>0.03258806892465312</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05790411182381465</v>
+        <v>0.05794392685901426</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -2328,19 +2328,19 @@
         <v>55249</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42050</v>
+        <v>41353</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70389</v>
+        <v>70553</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02669829439173154</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02031993299071846</v>
+        <v>0.01998310488675308</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03401440839278162</v>
+        <v>0.03409364300198119</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>970452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>962664</v>
+        <v>963865</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>973896</v>
+        <v>974242</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9932237609074459</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9852530160614574</v>
+        <v>0.9864818838682385</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9967481792099915</v>
+        <v>0.997103058400055</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>973</v>
@@ -2378,19 +2378,19 @@
         <v>1043698</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1029077</v>
+        <v>1029033</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1055802</v>
+        <v>1056730</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9554816758050013</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9420958881761849</v>
+        <v>0.9420560731409854</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9665620457453242</v>
+        <v>0.9674119310753468</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1890</v>
@@ -2399,19 +2399,19 @@
         <v>2014151</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1999011</v>
+        <v>1998847</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2027350</v>
+        <v>2028047</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9733017056082685</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9659855916072184</v>
+        <v>0.9659063569980189</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9796800670092816</v>
+        <v>0.980016895113247</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>15938</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9222</v>
+        <v>9290</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24917</v>
+        <v>24872</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01802796027872795</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0104310628884253</v>
+        <v>0.01050844959392808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0281842512350628</v>
+        <v>0.02813253560420133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -2524,19 +2524,19 @@
         <v>37212</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26168</v>
+        <v>26149</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50994</v>
+        <v>52105</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04248929084568371</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02987893393666986</v>
+        <v>0.02985784577459538</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05822645372771407</v>
+        <v>0.05949414050287444</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -2545,19 +2545,19 @@
         <v>53150</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39986</v>
+        <v>39876</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69932</v>
+        <v>70061</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0302010196538917</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02272105182799046</v>
+        <v>0.02265839507930229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.039736758794341</v>
+        <v>0.03981031707267922</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>868147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>859168</v>
+        <v>859213</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>874863</v>
+        <v>874795</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.981972039721272</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9718157487649371</v>
+        <v>0.9718674643957986</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9895689371115747</v>
+        <v>0.989491550406072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>786</v>
@@ -2595,19 +2595,19 @@
         <v>838584</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>824802</v>
+        <v>823691</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>849628</v>
+        <v>849647</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9575107091543162</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9417735462722859</v>
+        <v>0.9405058594971251</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9701210660633303</v>
+        <v>0.9701421542254045</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1599</v>
@@ -2616,19 +2616,19 @@
         <v>1706731</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1689949</v>
+        <v>1689820</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1719895</v>
+        <v>1720005</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9697989803461083</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.960263241205659</v>
+        <v>0.9601896829273209</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9772789481720096</v>
+        <v>0.9773416049206978</v>
       </c>
     </row>
     <row r="12">
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6233</v>
+        <v>7028</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004034182794163424</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01239062139117795</v>
+        <v>0.01397087739935391</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -2741,19 +2741,19 @@
         <v>24606</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16017</v>
+        <v>16222</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35845</v>
+        <v>36827</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05435015459708347</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03537919461150116</v>
+        <v>0.03583170590338649</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07917375518545956</v>
+        <v>0.08134376985447646</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -2762,19 +2762,19 @@
         <v>26636</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18600</v>
+        <v>17739</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38016</v>
+        <v>39551</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02786848500883043</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01946125461072496</v>
+        <v>0.01856052542126796</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03977579713459096</v>
+        <v>0.04138212001987031</v>
       </c>
     </row>
     <row r="14">
@@ -2791,7 +2791,7 @@
         <v>500994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>496790</v>
+        <v>495995</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>503023</v>
@@ -2800,7 +2800,7 @@
         <v>0.9959658172058365</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.987609378608822</v>
+        <v>0.986029122600646</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2812,19 +2812,19 @@
         <v>428130</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>416891</v>
+        <v>415909</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>436719</v>
+        <v>436514</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9456498454029165</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9208262448145402</v>
+        <v>0.9186562301455232</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9646208053884987</v>
+        <v>0.9641682940966134</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>848</v>
@@ -2833,19 +2833,19 @@
         <v>929122</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>917742</v>
+        <v>916207</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>937158</v>
+        <v>938019</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9721315149911696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9602242028654091</v>
+        <v>0.9586178799801297</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9805387453892751</v>
+        <v>0.9814394745787323</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>41286</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29943</v>
+        <v>28827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55191</v>
+        <v>55377</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01211412860820322</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008785681747443558</v>
+        <v>0.00845846025937318</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01619393933136621</v>
+        <v>0.01624867636375356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>174</v>
@@ -2958,19 +2958,19 @@
         <v>186641</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>160358</v>
+        <v>161999</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>212886</v>
+        <v>215388</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05273059986829902</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04530508861702855</v>
+        <v>0.04576881516531745</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06014573016983315</v>
+        <v>0.06085234774094797</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>214</v>
@@ -2979,19 +2979,19 @@
         <v>227927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>197162</v>
+        <v>198897</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>260495</v>
+        <v>258749</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03280644164462237</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02837830240912724</v>
+        <v>0.02862807936851748</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03749413898602889</v>
+        <v>0.03724280091340448</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3366829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3352924</v>
+        <v>3352738</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3378172</v>
+        <v>3379288</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9878858713917967</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.983806060668634</v>
+        <v>0.9837513236362464</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9912143182525565</v>
+        <v>0.9915415397406269</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3108</v>
@@ -3029,19 +3029,19 @@
         <v>3352870</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3326625</v>
+        <v>3324123</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3379153</v>
+        <v>3377512</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.947269400131701</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9398542698301663</v>
+        <v>0.9391476522590522</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9546949113829709</v>
+        <v>0.9542311848346826</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6260</v>
@@ -3050,19 +3050,19 @@
         <v>6719699</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6687131</v>
+        <v>6688877</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6750464</v>
+        <v>6748729</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9671935583553777</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9625058610139712</v>
+        <v>0.9627571990865955</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9716216975908728</v>
+        <v>0.9713719206314825</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>26658</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17956</v>
+        <v>16956</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39875</v>
+        <v>38748</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02363263619149951</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01591867782166189</v>
+        <v>0.01503186494370126</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03534995871146047</v>
+        <v>0.03435107305313987</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -3415,19 +3415,19 @@
         <v>88219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71673</v>
+        <v>69798</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107412</v>
+        <v>107515</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07003963389587857</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0569035302648549</v>
+        <v>0.05541442853842481</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08527735874921899</v>
+        <v>0.0853592741378882</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -3436,19 +3436,19 @@
         <v>114877</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97342</v>
+        <v>95666</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>140362</v>
+        <v>138335</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04811473621015825</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04077038898789546</v>
+        <v>0.04006854085640246</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05878878122772497</v>
+        <v>0.05793998309581957</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1101339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1088122</v>
+        <v>1089249</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1110041</v>
+        <v>1111041</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9763673638085005</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9646500412885395</v>
+        <v>0.9656489269468601</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.984081322178338</v>
+        <v>0.9849681350562987</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1108</v>
@@ -3486,19 +3486,19 @@
         <v>1171342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1152149</v>
+        <v>1152046</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1187888</v>
+        <v>1189763</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9299603661041215</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9147226412507811</v>
+        <v>0.9146407258621118</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9430964697351452</v>
+        <v>0.9445855714615752</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2149</v>
@@ -3507,19 +3507,19 @@
         <v>2272681</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2247196</v>
+        <v>2249223</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2290216</v>
+        <v>2291892</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9518852637898417</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9412112187722748</v>
+        <v>0.9420600169041806</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9592296110121045</v>
+        <v>0.9599314591435978</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>9862</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5170</v>
+        <v>4798</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17424</v>
+        <v>17492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01085147864264143</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005689199857436515</v>
+        <v>0.005279376524330944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0191722029216459</v>
+        <v>0.01924686689867902</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -3632,19 +3632,19 @@
         <v>58553</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44877</v>
+        <v>45224</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75742</v>
+        <v>75037</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05817628488708983</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04458830546666307</v>
+        <v>0.04493354416811521</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07525443938134788</v>
+        <v>0.07455419366339602</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -3653,19 +3653,19 @@
         <v>68415</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54041</v>
+        <v>53281</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>87740</v>
+        <v>85508</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03572029633444238</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02821548146314942</v>
+        <v>0.02781837277164222</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04581028718647072</v>
+        <v>0.04464481196953474</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>898963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>891401</v>
+        <v>891333</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>903655</v>
+        <v>904027</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9891485213573585</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9808277970783541</v>
+        <v>0.9807531331013211</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9943108001425636</v>
+        <v>0.9947206234756691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>897</v>
@@ -3703,19 +3703,19 @@
         <v>947922</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>930733</v>
+        <v>931438</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>961598</v>
+        <v>961251</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9418237151129102</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9247455606186522</v>
+        <v>0.9254458063366039</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.955411694533337</v>
+        <v>0.9550664558318848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1768</v>
@@ -3724,19 +3724,19 @@
         <v>1846885</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1827560</v>
+        <v>1829792</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1861259</v>
+        <v>1862019</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9642797036655576</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9541897128135293</v>
+        <v>0.9553551880304653</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9717845185368506</v>
+        <v>0.9721816272283578</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>6999</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3093</v>
+        <v>2905</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13894</v>
+        <v>13912</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008496997129755195</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003754769321103803</v>
+        <v>0.003526551294356635</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01686684328540553</v>
+        <v>0.01688815052842156</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3849,19 +3849,19 @@
         <v>26120</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17759</v>
+        <v>17726</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36747</v>
+        <v>37847</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03387585740990909</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02303146770167577</v>
+        <v>0.02298962355555802</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04765765001928359</v>
+        <v>0.04908474002450645</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -3870,19 +3870,19 @@
         <v>33120</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22376</v>
+        <v>22318</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45774</v>
+        <v>45350</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02076710635358062</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01403013657304549</v>
+        <v>0.01399417745284062</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02870164173342411</v>
+        <v>0.0284361364609575</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>816760</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>809865</v>
+        <v>809847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820666</v>
+        <v>820854</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9915030028702448</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9831331567145939</v>
+        <v>0.9831118494715784</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9962452306788961</v>
+        <v>0.9964734487056432</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>703</v>
@@ -3920,19 +3920,19 @@
         <v>744939</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>734312</v>
+        <v>733212</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>753300</v>
+        <v>753333</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9661241425900909</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9523423499807165</v>
+        <v>0.9509152599754936</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9769685322983243</v>
+        <v>0.977010376444442</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1483</v>
@@ -3941,19 +3941,19 @@
         <v>1561698</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1549044</v>
+        <v>1549468</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1572442</v>
+        <v>1572500</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9792328936464194</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.971298358266576</v>
+        <v>0.9715638635390422</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9859698634269546</v>
+        <v>0.9860058225471592</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>4356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11168</v>
+        <v>10967</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008597094160342602</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002211947569261995</v>
+        <v>0.002220538280865901</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02204130264858754</v>
+        <v>0.02164351213232272</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -4066,19 +4066,19 @@
         <v>19611</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12058</v>
+        <v>11551</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30158</v>
+        <v>30073</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04004754100847786</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02462430833697909</v>
+        <v>0.02358839280199127</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06158571413097713</v>
+        <v>0.06141076187730235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -4087,19 +4087,19 @@
         <v>23967</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15117</v>
+        <v>15406</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36389</v>
+        <v>36647</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02405396964845085</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01517198015941125</v>
+        <v>0.01546200432023455</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0365204792102394</v>
+        <v>0.03677907385416378</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>502345</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>495533</v>
+        <v>495734</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505580</v>
+        <v>505576</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9914029058396574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9779586973514124</v>
+        <v>0.978356487867677</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.997788052430738</v>
+        <v>0.9977794617191341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>438</v>
@@ -4137,19 +4137,19 @@
         <v>470087</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>459540</v>
+        <v>459625</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>477640</v>
+        <v>478147</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9599524589915222</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9384142858690229</v>
+        <v>0.9385892381226977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.975375691663021</v>
+        <v>0.9764116071980088</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>905</v>
@@ -4158,19 +4158,19 @@
         <v>972431</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>960009</v>
+        <v>959751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>981281</v>
+        <v>980992</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9759460303515491</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9634795207897605</v>
+        <v>0.9632209261458362</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9848280198405887</v>
+        <v>0.9845379956797655</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>47875</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36429</v>
+        <v>35959</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63248</v>
+        <v>62962</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01421777949147338</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01081840413882181</v>
+        <v>0.01067907875415316</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01878300152249378</v>
+        <v>0.01869808055146666</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>176</v>
@@ -4283,19 +4283,19 @@
         <v>192504</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>166693</v>
+        <v>165331</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>223704</v>
+        <v>223766</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05458320396132067</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04726465570928661</v>
+        <v>0.0468787090439996</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06342979693281697</v>
+        <v>0.06344747774735718</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>222</v>
@@ -4304,19 +4304,19 @@
         <v>240379</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>209637</v>
+        <v>209108</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>273377</v>
+        <v>270677</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03486746470360585</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03040832961328408</v>
+        <v>0.03033157074199937</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03965392189474915</v>
+        <v>0.03926222563240422</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3319407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3304034</v>
+        <v>3304320</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3330853</v>
+        <v>3331323</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9857822205085266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9812169984775063</v>
+        <v>0.9813019194485334</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9891815958611783</v>
+        <v>0.9893209212458468</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3146</v>
@@ -4354,19 +4354,19 @@
         <v>3334288</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3303088</v>
+        <v>3303026</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3360099</v>
+        <v>3361461</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9454167960386793</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.936570203067183</v>
+        <v>0.9365525222526425</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9527353442907134</v>
+        <v>0.9531212909560002</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6305</v>
@@ -4375,19 +4375,19 @@
         <v>6653696</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6620698</v>
+        <v>6623398</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6684438</v>
+        <v>6684967</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9651325352963942</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9603460781052509</v>
+        <v>0.9607377743675958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9695916703867159</v>
+        <v>0.9696684292580006</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>36315</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25386</v>
+        <v>25001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52431</v>
+        <v>50567</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07319608813149349</v>
+        <v>0.0731960881314935</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05116779665205785</v>
+        <v>0.05039262921061168</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1056786613994313</v>
+        <v>0.1019232558491976</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>146</v>
@@ -4740,19 +4740,19 @@
         <v>98138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84905</v>
+        <v>82920</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117375</v>
+        <v>113931</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1575424056157105</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1362985481605487</v>
+        <v>0.133112798037041</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1884228441501307</v>
+        <v>0.1828939692311405</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -4761,19 +4761,19 @@
         <v>134453</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>115088</v>
+        <v>115213</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>155749</v>
+        <v>155055</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1201478349189331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1028427392142304</v>
+        <v>0.1029542258129817</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1391778611875734</v>
+        <v>0.1385578125831968</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>459818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443702</v>
+        <v>445566</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>470747</v>
+        <v>471132</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9268039118685065</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8943213386005687</v>
+        <v>0.8980767441508024</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9488322033479423</v>
+        <v>0.9496073707893883</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>714</v>
@@ -4811,19 +4811,19 @@
         <v>524795</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>505558</v>
+        <v>509002</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>538028</v>
+        <v>540013</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8424575943842895</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8115771558498694</v>
+        <v>0.8171060307688596</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8637014518394515</v>
+        <v>0.8668872019629592</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1135</v>
@@ -4832,19 +4832,19 @@
         <v>984614</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>963318</v>
+        <v>964012</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1003979</v>
+        <v>1003854</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.879852165081067</v>
+        <v>0.8798521650810669</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8608221388124264</v>
+        <v>0.8614421874168032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8971572607857695</v>
+        <v>0.897045774187018</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>31982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23311</v>
+        <v>22566</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44279</v>
+        <v>45865</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03334786510431843</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02430664274514864</v>
+        <v>0.0235299040473695</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04617029708380043</v>
+        <v>0.04782365528720534</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>176</v>
@@ -4957,19 +4957,19 @@
         <v>116938</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100031</v>
+        <v>101055</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>136581</v>
+        <v>137447</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1049334460089117</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08976237669679861</v>
+        <v>0.09068064903436321</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1225604726319246</v>
+        <v>0.1233376344079965</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>212</v>
@@ -4978,19 +4978,19 @@
         <v>148920</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>128426</v>
+        <v>129702</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169689</v>
+        <v>173886</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07182253566281691</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06193842446334175</v>
+        <v>0.06255419239089499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08183935611069021</v>
+        <v>0.08386359271402831</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>927059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>914762</v>
+        <v>913176</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>935730</v>
+        <v>936475</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9666521348956817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9538297029161998</v>
+        <v>0.9521763447127943</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9756933572548514</v>
+        <v>0.9764700959526306</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1429</v>
@@ -5028,19 +5028,19 @@
         <v>997462</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>977819</v>
+        <v>976953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1014369</v>
+        <v>1013345</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8950665539910884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8774395273680754</v>
+        <v>0.8766623655920033</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9102376233032013</v>
+        <v>0.9093193509656367</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2302</v>
@@ -5049,19 +5049,19 @@
         <v>1924521</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1903752</v>
+        <v>1899555</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1945015</v>
+        <v>1943739</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9281774643371831</v>
+        <v>0.928177464337183</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.918160643889309</v>
+        <v>0.9161364072859718</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.938061575536658</v>
+        <v>0.937445807609105</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>37207</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27242</v>
+        <v>26305</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51924</v>
+        <v>51209</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03555400415150597</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02603217869581693</v>
+        <v>0.02513677332754066</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04961823964311123</v>
+        <v>0.04893435958298537</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>144</v>
@@ -5174,19 +5174,19 @@
         <v>100106</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83676</v>
+        <v>84307</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118313</v>
+        <v>117089</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09574755733972848</v>
+        <v>0.09574755733972846</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08003272784599583</v>
+        <v>0.08063642520753128</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1131615729451994</v>
+        <v>0.1119907136428824</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>182</v>
@@ -5195,19 +5195,19 @@
         <v>137313</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>119064</v>
+        <v>117534</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160290</v>
+        <v>160519</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0656370281579913</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05691388093012214</v>
+        <v>0.05618267216780301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0766204416937155</v>
+        <v>0.0767300324250878</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1009272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>994555</v>
+        <v>995270</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1019237</v>
+        <v>1020174</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.964445995848494</v>
+        <v>0.9644459958484939</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9503817603568887</v>
+        <v>0.9510656404170146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.973967821304183</v>
+        <v>0.9748632266724594</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1369</v>
@@ -5245,19 +5245,19 @@
         <v>945417</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>927210</v>
+        <v>928434</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>961847</v>
+        <v>961216</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9042524426602715</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8868384270548005</v>
+        <v>0.8880092863571175</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.919967272154004</v>
+        <v>0.9193635747924687</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2360</v>
@@ -5266,19 +5266,19 @@
         <v>1954690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1931713</v>
+        <v>1931484</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1972939</v>
+        <v>1974469</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9343629718420087</v>
+        <v>0.9343629718420088</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.923379558306284</v>
+        <v>0.9232699675749123</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9430861190698779</v>
+        <v>0.9438173278321972</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>48333</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35924</v>
+        <v>34118</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64492</v>
+        <v>65183</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04952523120814682</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03680982165985464</v>
+        <v>0.03495938153513344</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06608304899407624</v>
+        <v>0.06679028409089496</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>144</v>
@@ -5391,19 +5391,19 @@
         <v>104308</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89541</v>
+        <v>88077</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123513</v>
+        <v>124445</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1148444876775332</v>
+        <v>0.1148444876775331</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09858608863590097</v>
+        <v>0.09697479380955402</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1359897783200219</v>
+        <v>0.137016005633584</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -5412,19 +5412,19 @@
         <v>152641</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131093</v>
+        <v>130240</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177169</v>
+        <v>178426</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08101174764611391</v>
+        <v>0.08101174764611388</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06957552560419562</v>
+        <v>0.06912314678171036</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09402981583682327</v>
+        <v>0.09469685303097754</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>927596</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>911437</v>
+        <v>910746</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>940005</v>
+        <v>941811</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9504747687918532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9339169510059238</v>
+        <v>0.933209715909105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9631901783401455</v>
+        <v>0.9650406184648666</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1176</v>
@@ -5462,19 +5462,19 @@
         <v>803943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>784738</v>
+        <v>783806</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>818710</v>
+        <v>820174</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8851555123224669</v>
+        <v>0.8851555123224668</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8640102216799779</v>
+        <v>0.8629839943664159</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9014139113640989</v>
+        <v>0.9030252061904459</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2076</v>
@@ -5483,19 +5483,19 @@
         <v>1731539</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1707011</v>
+        <v>1705754</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1753087</v>
+        <v>1753940</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9189882523538861</v>
+        <v>0.9189882523538859</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9059701841631768</v>
+        <v>0.9053031469690226</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9304244743958042</v>
+        <v>0.9308768532182896</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>153837</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>130893</v>
+        <v>130108</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>181355</v>
+        <v>182691</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04423665727499631</v>
+        <v>0.0442366572749963</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03763914182666483</v>
+        <v>0.03741346155506374</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05214969378024913</v>
+        <v>0.05253377693768656</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>610</v>
@@ -5608,19 +5608,19 @@
         <v>419490</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>390683</v>
+        <v>386080</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>453253</v>
+        <v>455233</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.113648861367687</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1058443187696168</v>
+        <v>0.104597240222064</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1227960722600238</v>
+        <v>0.1233323602191226</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>763</v>
@@ -5629,19 +5629,19 @@
         <v>573327</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>534127</v>
+        <v>532666</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>617428</v>
+        <v>617950</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07997650421299556</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07450829223739128</v>
+        <v>0.07430454580171729</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08612842071473804</v>
+        <v>0.08620122169631471</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3323746</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3296228</v>
+        <v>3294892</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3346690</v>
+        <v>3347475</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9557633427250036</v>
+        <v>0.9557633427250035</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.947850306219751</v>
+        <v>0.9474662230623133</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9623608581733352</v>
+        <v>0.9625865384449362</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4688</v>
@@ -5679,19 +5679,19 @@
         <v>3271617</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3237854</v>
+        <v>3235874</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3300424</v>
+        <v>3305027</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8863511386323129</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8772039277399759</v>
+        <v>0.8766676397808768</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.894155681230383</v>
+        <v>0.895402759777936</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7873</v>
@@ -5700,19 +5700,19 @@
         <v>6595363</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6551262</v>
+        <v>6550740</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6634563</v>
+        <v>6636024</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9200234957870044</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9138715792852624</v>
+        <v>0.9137987783036855</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9254917077626088</v>
+        <v>0.9256954541982828</v>
       </c>
     </row>
     <row r="18">
